--- a/data/xlsx/BJ.xlsx
+++ b/data/xlsx/BJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/codeforiati/gov-id-finder-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD4719-8849-494F-A9E1-379EC57C294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7034FDE-DC5F-8C42-BC17-39848A3C5AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="180" windowWidth="20280" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44600" yWindow="-480" windowWidth="20280" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,74 +609,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,26 +689,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,157 +721,160 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="A5:A34"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>